--- a/ichijikyu_6.xlsx
+++ b/ichijikyu_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -85,6 +85,9 @@
     <t>清水　隆之</t>
   </si>
   <si>
+    <t>熊木聡美</t>
+  </si>
+  <si>
     <t>片山充哉</t>
   </si>
   <si>
@@ -142,127 +145,145 @@
     <t>髙木菜々美</t>
   </si>
   <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月5日 ,6月6日 ,6月7日</t>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月13日 ,6月14日 ,6月17日 ,6月18日 ,6月20日 ,6月21日 ,6月24日 ,6月25日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月26日 ,6月27日 ,6月28日</t>
   </si>
   <si>
     <t>6月3日 (月) ,6月10日 (月) ,6月17日 (月) ,6月24日 (月)</t>
   </si>
   <si>
-    <t>6月3日 ,6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日</t>
+    <t>6月3日 ,6月5日 ,6月6日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月11日 ,6月18日 ,6月25日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月11日 ,6月12日 ,6月13日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月8日 ,6月9日 ,6月10日 ,6月12日 ,6月13日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月20日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月27日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月13日 ,6月16日 ,6月17日 ,6月18日 ,6月20日 ,6月23日 ,6月24日 ,6月25日 ,6月27日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月10日 ,6月11日 ,6月24日 ,6月25日</t>
+  </si>
+  <si>
+    <t>6月17日 (月) ,6月24日 (月)</t>
+  </si>
+  <si>
+    <t>6月7日 (金) ,6月14日 (金) ,6月28日 (金)</t>
+  </si>
+  <si>
+    <t>6月5日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月10日 ,6月12日 ,6月17日 ,6月19日 ,6月24日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月5日 ,6月7日 ,6月8日 ,6月9日 ,6月12日 ,6月14日 ,6月15日 ,6月16日 ,6月19日 ,6月21日 ,6月22日 ,6月23日 ,6月26日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月10日 ,6月17日 ,6月24日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月6日 ,6月7日 ,6月13日 ,6月18日 ,6月20日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月12日 ,6月14日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月5日 ,6月8日 ,6月9日 ,6月12日 ,6月15日 ,6月16日 ,6月19日 ,6月22日 ,6月23日 ,6月26日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月15日 ,6月16日 ,6月29日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月24日 ,6月25日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月4日 (火) ,6月5日 (水) ,6月６日 (木) ,6月7日 (金) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金)</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月4日 ,6月7日 ,6月8日 ,6月9日 ,6月11日 ,6月15日 ,6月16日 ,6月18日 ,6月22日 ,6月23日 ,6月25日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月16日 ,6月17日 ,6月19日 ,6月20日 ,6月21日 ,6月22日 ,6月23日 ,6月24日 ,6月26日 ,6月27日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月7日 ,6月8日 ,6月9日 ,6月10日 ,6月14日 ,6月15日 ,6月21日 ,6月22日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月7日 ,6月11日 ,6月14日 ,6月18日 ,6月21日 ,6月25日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月13日 ,6月14日 ,6月17日 ,6月20日 ,6月21日 ,6月24日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月5日 ,6月11日 ,6月12日 ,6月18日 ,6月19日 ,6月25日 ,6月26日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月8日 ,6月9日 ,6月11日 ,6月18日 ,6月25日 ,6月28日 ,6月29日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月7日 ,6月12日 ,6月14日 ,6月15日 ,6月19日 ,6月21日 ,6月22日 ,6月26日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月17日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月7日 ,6月8日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月10日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月15日 ,6月17日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月24日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月6日 ,6月12日 ,6月13日 ,6月20日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月7日 ,6月10日 ,6月14日 ,6月17日 ,6月21日 ,6月24日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月3日 (月)</t>
+  </si>
+  <si>
+    <t>6月3日 ,6月10日 ,6月17日 ,6月24日 ,6月28日</t>
+  </si>
+  <si>
+    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月4日 (火) ,6月5日 (水) ,6月6日 (木) ,6月7日 (金) ,6月8日 (土) ,6月9日 (日) ,6月10日 (月) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月15日 (土) ,6月16日 (日) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月23日 (日) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
+  </si>
+  <si>
+    <t>6月5日 (水) ,6月12日 (水) ,6月18日 (火) ,6月19日 (水) ,6月26日 (水)</t>
+  </si>
+  <si>
+    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月8日 ,6月9日 ,6月10日 ,6月11日 ,6月16日 ,6月17日 ,6月18日 ,6月23日 ,6月24日 ,6月25日 ,6月30日</t>
+  </si>
+  <si>
+    <t>6月5日 ,6月6日 ,6月11日 ,6月12日 ,6月13日 ,6月19日 ,6月20日 ,6月26日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月6日 ,6月7日 ,6月11日 ,6月13日 ,6月14日 ,6月18日 ,6月20日 ,6月21日 ,6月25日 ,6月27日 ,6月28日</t>
   </si>
   <si>
     <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月5日 ,6月6日</t>
   </si>
   <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月6日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日</t>
-  </si>
-  <si>
-    <t>6月17日 (月) ,6月24日 (月)</t>
-  </si>
-  <si>
-    <t>6月7日 (金) ,6月14日 (金) ,6月28日 (金)</t>
-  </si>
-  <si>
-    <t>6月5日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月5日</t>
-  </si>
-  <si>
-    <t>6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月5日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月3日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月5日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 (火) ,6月5日 (水) ,6月６日 (木) ,6月7日 (金) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金)</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月4日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月5日 ,6月6日 ,6月7日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月5日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月7日 ,6月8日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月5日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月6日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月3日 (月)</t>
-  </si>
-  <si>
-    <t>6月1日 (土) ,6月2日 (日) ,6月3日 (月) ,6月4日 (火) ,6月5日 (水) ,6月6日 (木) ,6月7日 (金) ,6月8日 (土) ,6月9日 (日) ,6月10日 (月) ,6月11日 (火) ,6月12日 (水) ,6月13日 (木) ,6月14日 (金) ,6月15日 (土) ,6月16日 (日) ,6月18日 (火) ,6月19日 (水) ,6月20日 (木) ,6月21日 (金) ,6月22日 (土) ,6月23日 (日) ,6月25日 (火) ,6月26日 (水) ,6月27日 (木) ,6月28日 (金) ,6月29日 (土) ,6月30日 (日)</t>
-  </si>
-  <si>
-    <t>6月5日 (水) ,6月12日 (水) ,6月18日 (火) ,6月19日 (水) ,6月26日 (水)</t>
-  </si>
-  <si>
-    <t>6月1日 ,6月2日 ,6月3日 ,6月4日 ,6月8日 ,6月9日</t>
-  </si>
-  <si>
-    <t>6月5日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月6日 ,6月7日</t>
-  </si>
-  <si>
-    <t>6月3日 ,6月4日 ,6月6日</t>
-  </si>
-  <si>
-    <t>6月4日 ,6月5日 ,6月6日 ,6月7日</t>
+    <t>6月3日 ,6月4日 ,6月6日 ,6月10日 ,6月11日 ,6月13日 ,6月17日 ,6月18日 ,6月20日 ,6月24日 ,6月25日 ,6月27日</t>
+  </si>
+  <si>
+    <t>6月4日 ,6月5日 ,6月6日 ,6月7日 ,6月11日 ,6月12日 ,6月13日 ,6月14日 ,6月18日 ,6月19日 ,6月20日 ,6月21日 ,6月25日 ,6月26日 ,6月27日 ,6月28日</t>
   </si>
   <si>
     <t>6月1日 ,6月2日 ,6月9日</t>
@@ -650,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,10 +716,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -709,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -723,10 +744,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -737,13 +758,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -754,13 +775,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -771,10 +792,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -785,10 +806,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -799,13 +820,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,13 +837,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -833,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,13 +871,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -867,16 +888,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,10 +908,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,13 +936,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,16 +953,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,13 +973,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,13 +990,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,10 +1004,13 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -999,14 +1020,11 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1016,11 +1034,14 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,13 +1052,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1048,10 +1066,13 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1062,10 +1083,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1075,14 +1096,11 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1096,10 +1114,10 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1112,8 +1130,11 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1123,11 +1144,11 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
-        <v>78</v>
+      <c r="C30" t="s">
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1138,12 +1159,9 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1155,10 +1173,13 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1168,14 +1189,11 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1189,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1206,10 +1224,10 @@
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1223,13 +1241,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1239,11 +1254,17 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1254,10 +1275,24 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/ichijikyu_6.xlsx
+++ b/ichijikyu_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>伊藤国秋</t>
   </si>
   <si>
-    <t>佐川　偲</t>
-  </si>
-  <si>
-    <t>入佐　薫</t>
+    <t>佐川偲</t>
+  </si>
+  <si>
+    <t>入佐薫</t>
   </si>
   <si>
     <t>勝俣敬寛</t>
@@ -67,7 +67,7 @@
     <t>岩崎文美</t>
   </si>
   <si>
-    <t>川瀬　咲</t>
+    <t>川瀬咲</t>
   </si>
   <si>
     <t>持丸貴生</t>
@@ -79,10 +79,10 @@
     <t>林智史</t>
   </si>
   <si>
-    <t>津山　頌章</t>
-  </si>
-  <si>
-    <t>清水　隆之</t>
+    <t>津山頌章</t>
+  </si>
+  <si>
+    <t>清水隆之</t>
   </si>
   <si>
     <t>熊木聡美</t>
@@ -91,7 +91,7 @@
     <t>片山充哉</t>
   </si>
   <si>
-    <t>石井　真央</t>
+    <t>石井真央</t>
   </si>
   <si>
     <t>福島龍貴</t>
@@ -106,13 +106,13 @@
     <t>糖尿病科岩瀬</t>
   </si>
   <si>
-    <t>織部　峻太郎</t>
-  </si>
-  <si>
-    <t>腎内　門松</t>
-  </si>
-  <si>
-    <t>腎臓内科　松浦</t>
+    <t>織部峻太郎</t>
+  </si>
+  <si>
+    <t>腎内門松</t>
+  </si>
+  <si>
+    <t>腎臓内科松浦</t>
   </si>
   <si>
     <t>臼坂優希</t>
@@ -121,16 +121,16 @@
     <t>莇舜平</t>
   </si>
   <si>
-    <t>藤村 慶子</t>
+    <t>藤村慶子</t>
   </si>
   <si>
     <t>藤澤まり</t>
   </si>
   <si>
-    <t>里見　良輔</t>
-  </si>
-  <si>
-    <t>野上　創生</t>
+    <t>里見良輔</t>
+  </si>
+  <si>
+    <t>野上創生</t>
   </si>
   <si>
     <t>鈴木勝也</t>
@@ -139,7 +139,7 @@
     <t>長谷川華子</t>
   </si>
   <si>
-    <t>雪野　満</t>
+    <t>雪野満</t>
   </si>
   <si>
     <t>髙木菜々美</t>
@@ -295,22 +295,13 @@
     <t>特にありません。</t>
   </si>
   <si>
-    <t>火金外来のため不可</t>
-  </si>
-  <si>
     <t>免除です。</t>
   </si>
   <si>
-    <t>特にございません</t>
-  </si>
-  <si>
     <t>火曜日外勤で不在になります。</t>
   </si>
   <si>
     <t>月、金外来です。</t>
-  </si>
-  <si>
-    <t>水曜日外勤 木曜日外来</t>
   </si>
   <si>
     <t>月曜のみ対応可</t>
@@ -896,9 +887,6 @@
       <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -942,7 +930,7 @@
         <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -961,9 +949,6 @@
       <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
@@ -1010,7 +995,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1072,7 +1057,7 @@
         <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1178,9 +1163,6 @@
       <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="F32" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
@@ -1264,7 +1246,7 @@
         <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
